--- a/medicine/Enfance/Les_Minuscules/Les_Minuscules.xlsx
+++ b/medicine/Enfance/Les_Minuscules/Les_Minuscules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Minuscules (titre original : The Minpins) est un conte pour enfants écrit par Roald Dahl, illustré par Patrick Benson. Il est paru pour la première fois aux éditions Jonathan Cape Ltd en 1991[1], quelques mois après la mort de son auteur, puis traduit en français par Marie Saint-Dizier et publié par Gallimard. Une version illustrée par Quentin Blake est parue en version originale en 2017[2], puis en français en 2018[3].
+Les Minuscules (titre original : The Minpins) est un conte pour enfants écrit par Roald Dahl, illustré par Patrick Benson. Il est paru pour la première fois aux éditions Jonathan Cape Ltd en 1991, quelques mois après la mort de son auteur, puis traduit en français par Marie Saint-Dizier et publié par Gallimard. Une version illustrée par Quentin Blake est parue en version originale en 2017, puis en français en 2018.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit Louis rêve de s'échapper de son quotidien monotone et de s'aventurer dans la Forêt Interdite. Malheureusement, sa maman le lui interdit : il pourrait tomber nez à nez avec l'Horrifiant Engoulesang Casse-Moloch Ecrase-Roc, un terrible monstre de feu et de fumée terrorisant toute la forêt. Il n'en fallait pas plus pour attiser la curiosité de Petit Louis, qui s'empresse de passer la barrière du jardin pour s'engouffrer dans la forêt. Mais le rêve se heurte à la réalité, des grondements inquiétants se font entendre et obligent le jeune garçon à se réfugier dans les branches d'un arbre. Il était loin de se douter qu'il fera la rencontre d'un peuple magique de minuscules créatures…
 </t>
@@ -543,7 +557,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(ISBN 2070566323) (Album Gallimard Jeunesse - 1991)
 (ISBN 2070523225) (Gallimard Jeunesse - Folio Cadet - 1993)
